--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1606677.738381477</v>
+        <v>1602665.128367483</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103655</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952942</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -788,7 +788,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414544</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>61.36917500887014</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228.0656025585486</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>228.8517280147735</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -955,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>39.35604302001497</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>108.1032250584719</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>243.2395284792104</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097352</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C10" t="n">
-        <v>4.733723693265377</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695258</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766839</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>141.383131826302</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>172.3645574474261</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>63.16281301712667</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>111.321323070213</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>35.41770597126791</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819412</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>137.9792024346636</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>98.72106119199864</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>220.6346102953139</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756248</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>65.994800130306</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>68.17501931583779</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>160.6789846282048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>19.91555826189147</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,16 +4330,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.5121164321834</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
         <v>66.5121164321834</v>
@@ -4512,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1832.276849100055</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1463.314332159643</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1463.314332159643</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796418</v>
+        <v>2218.876689164176</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,49 +4649,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.2385409879453</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>570.3023580600384</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>420.1857186477026</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>420.1857186477026</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>926.2736972002942</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>926.2736972002942</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>926.2736972002942</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>515.2877924106867</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218349</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296689</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052372</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609174</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.31515313627</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520492</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520492</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520492</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520492</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2763.640912107148</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218349</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215814</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.6193326979445</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218349</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962303</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372935</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596509</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588489</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886967</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068866</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596454</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181863</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757143</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025407</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025407</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>350.2677975281842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>350.2677975281842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>350.2677975281842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>350.2677975281842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.2677975281842</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5023,49 +5023,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192579</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756264</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756264</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969318</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400694</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648817</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138393</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703091</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5272,22 +5272,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2272.857469997002</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998291</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>695.5020655703114</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>695.5020655703114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2411.187623003223</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429802</v>
@@ -6381,55 +6381,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>816.5764010855596</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2823.93565349167</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>2654.999470563763</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>2504.882831151427</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>2504.882831151427</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>2504.882831151427</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866307</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866307</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650998</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305902</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328844</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>3998.467906606304</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3743.783418400418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3454.366248363457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3226.37669746544</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>3005.58411832191</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,16 +6697,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3227.225672628157</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3058.28948970025</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2908.172850287915</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>2760.259756705521</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>2613.369809207611</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2446.173709922491</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4147.073437536905</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3857.656267499944</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3629.666716601927</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3408.874137458397</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,55 +6931,55 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803939</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803939</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2951.54259528685</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>2782.606412358944</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>2632.489772946608</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>2484.576679364215</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866304</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>4126.074848401485</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>3871.390360195598</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>3581.973190158637</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>3353.98363926062</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>3133.19106011709</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069459</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876697</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597628</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474271</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>113.933388565034</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258107</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602305</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396418</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359457</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614396</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179095</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.771116669464391e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194397</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>45.04089287986218</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393025</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>83.2711496294425</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>106.0841272570753</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>145.6085800303767</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>114.1584408891644</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>119.8635921600961</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>61.35027805667495</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>32.89260457059906</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>186.142843193522</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>80.44045370237457</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>125.5054897610394</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5054897610398</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>903109.8587843144</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="H2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="H2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="J2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="L2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985036</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.96065251051914e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073536</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>9.143509487330447e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405234</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26475,7 +26475,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613934</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26496,13 +26496,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.2799812543</v>
+        <v>-996598.2799812541</v>
       </c>
       <c r="C6" t="n">
         <v>332146.4657463385</v>
       </c>
       <c r="D6" t="n">
-        <v>332146.4657463378</v>
+        <v>332146.4657463382</v>
       </c>
       <c r="E6" t="n">
-        <v>82063.7141953516</v>
+        <v>81716.33494099281</v>
       </c>
       <c r="F6" t="n">
-        <v>407476.1760027038</v>
+        <v>407128.7967483478</v>
       </c>
       <c r="G6" t="n">
-        <v>407476.1760027049</v>
+        <v>407128.7967483477</v>
       </c>
       <c r="H6" t="n">
-        <v>407476.1760027049</v>
+        <v>407128.7967483478</v>
       </c>
       <c r="I6" t="n">
-        <v>407476.1760027047</v>
+        <v>407128.7967483479</v>
       </c>
       <c r="J6" t="n">
-        <v>189944.9736054274</v>
+        <v>189597.5943510704</v>
       </c>
       <c r="K6" t="n">
-        <v>407476.1760027048</v>
+        <v>407128.7967483478</v>
       </c>
       <c r="L6" t="n">
-        <v>407476.1760027048</v>
+        <v>407128.7967483476</v>
       </c>
       <c r="M6" t="n">
-        <v>322421.1480671932</v>
+        <v>322073.7688128361</v>
       </c>
       <c r="N6" t="n">
-        <v>407476.1760027047</v>
+        <v>407128.7967483478</v>
       </c>
       <c r="O6" t="n">
-        <v>407476.1760027049</v>
+        <v>407128.7967483479</v>
       </c>
       <c r="P6" t="n">
-        <v>407476.1760027054</v>
+        <v>407128.7967483479</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022935</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,25 +26804,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483741</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,13 +27017,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973541</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,13 +27263,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973541</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.276709502444</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>158.5207149607594</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>190.7684683149579</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154.6682391049319</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>153.0786420574883</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>106.0650050029163</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>302.8185005949816</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>126.4915721992586</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C10" t="n">
-        <v>162.5130974053625</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29432,7 +29432,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837899</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,46 +31673,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.119366064751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.080820443724</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214695</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,43 +31910,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107744</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990634</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496626</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817556</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>595.3275373121701</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860818</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>601.0567753070482</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34380,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004565</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034297</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966719</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286439</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840384</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230785</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567575</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106947</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014231</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427327</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992795</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071393</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663299</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>303.878697277045</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663293</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9858252288368</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640634</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>469.7150632237149</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38028,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1602665.128367483</v>
+        <v>1604425.658670269</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283198</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>227.7172236952942</v>
+        <v>79.76470074482832</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>54.45803047044429</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>88.3646269539347</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>228.8517280147735</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>72.08802744677254</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>108.1032250584719</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>87.20461494092821</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>35.41770597126538</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>141.383131826302</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.255571502167253</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576164</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>111.321323070213</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819412</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>26.70391688092759</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101264</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>98.72106119199864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>85.08368458989422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>21.63824106824955</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>155.1980648094029</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>68.17501931583779</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9.146142788175823</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>26.13627195705825</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>160.6789846282036</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4330,10 +4330,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410101</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2961.784676410101</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="3">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
         <v>66.5121164321834</v>
@@ -4530,10 +4530,10 @@
         <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1832.276849100055</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
-        <v>1463.314332159643</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1463.314332159643</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2609.016021139988</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>2218.876689164176</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,19 +4649,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>751.950822890278</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>601.8341834779422</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>453.9210898955491</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>307.0311423976387</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>139.3283057723577</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>139.3283057723577</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140706</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C8" t="n">
-        <v>926.2736972002942</v>
+        <v>828.543614500981</v>
       </c>
       <c r="D8" t="n">
-        <v>926.2736972002942</v>
+        <v>470.2779158942305</v>
       </c>
       <c r="E8" t="n">
-        <v>926.2736972002942</v>
+        <v>84.48966329598633</v>
       </c>
       <c r="F8" t="n">
-        <v>515.2877924106867</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3237.520351971869</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2700.47971701252</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204828</v>
+        <v>1584.105971505514</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -5007,7 +5007,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327634</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>594.8179559048565</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925207</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>296.7882229101276</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>945.4026036630031</v>
       </c>
     </row>
     <row r="14">
@@ -5281,22 +5281,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5317,7 +5317,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,16 +5749,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5770,10 +5770,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2267.47159895366</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.9279362553159</v>
+        <v>734.6461798835963</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>565.7099969556895</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>415.5933575433537</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>267.6802639609606</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>120.7903164630502</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138361</v>
       </c>
       <c r="Y28" t="n">
-        <v>816.5764010855596</v>
+        <v>916.2946447138361</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6600,25 +6600,25 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000583</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>115.6734722078199</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6688,34 +6688,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -7074,19 +7074,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876652</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597583</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851783</v>
+        <v>411.9631215597583</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>411.9631215597583</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235161</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.4315576023</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396413</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359452</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>983.340348461435</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179049</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
   </sheetData>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>110.0033420516659</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>147.3599015160451</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>106.0841272570753</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.8202214113413</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>119.8635921600961</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>61.35027805667495</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>118.6564717779743</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>12.04875628922497</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>36.41624546988362</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.44045370237457</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347554</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1584408891656</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843145</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843145</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117841</v>
-      </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="J2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="L2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985039</v>
@@ -26355,7 +26355,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405259</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405257</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405252</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26524,46 +26524,46 @@
         <v>-996598.2799812541</v>
       </c>
       <c r="C6" t="n">
+        <v>332146.4657463384</v>
+      </c>
+      <c r="D6" t="n">
         <v>332146.4657463385</v>
       </c>
-      <c r="D6" t="n">
-        <v>332146.4657463382</v>
-      </c>
       <c r="E6" t="n">
-        <v>81716.33494099281</v>
+        <v>82028.97626991443</v>
       </c>
       <c r="F6" t="n">
-        <v>407128.7967483478</v>
+        <v>407441.4380772686</v>
       </c>
       <c r="G6" t="n">
-        <v>407128.7967483477</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="H6" t="n">
-        <v>407128.7967483478</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="I6" t="n">
-        <v>407128.7967483479</v>
+        <v>407441.4380772693</v>
       </c>
       <c r="J6" t="n">
-        <v>189597.5943510704</v>
+        <v>189910.2356799917</v>
       </c>
       <c r="K6" t="n">
-        <v>407128.7967483478</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="L6" t="n">
-        <v>407128.7967483476</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="M6" t="n">
-        <v>322073.7688128361</v>
+        <v>322386.4101417575</v>
       </c>
       <c r="N6" t="n">
-        <v>407128.7967483478</v>
+        <v>407441.4380772691</v>
       </c>
       <c r="O6" t="n">
-        <v>407128.7967483479</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="P6" t="n">
-        <v>407128.7967483479</v>
+        <v>407441.4380772691</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.5207149607594</v>
+        <v>306.4732379112253</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>94.15744254776807</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>294.3692147095459</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>153.0786420574883</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>24.26439296306555</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>302.8185005949816</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>21.98314684724762</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29432,7 +29432,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29480,7 +29480,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -31606,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32241,7 +32241,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175675</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34380,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -35254,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066212</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38028,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
